--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A963BEF-EF8B-4855-929E-475E22C5BE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E8F39-71D3-4C9D-953F-5D3214B16F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="780" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterPZ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>AWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abGG/ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dede/jiji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lala/aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1145/1919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,8 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,18 +456,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -462,8 +491,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -485,13 +517,16 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>114514</v>
       </c>
@@ -513,8 +548,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>533</v>
       </c>
@@ -536,8 +574,11 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -559,8 +600,11 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -582,8 +626,11 @@
       <c r="G7">
         <v>213</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>334</v>
       </c>
@@ -598,6 +645,9 @@
       </c>
       <c r="G8" t="s">
         <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E8F39-71D3-4C9D-953F-5D3214B16F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33234EA1-CD8A-4587-8104-1223E86E8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterPZ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,23 +111,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abGG/ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dede/jiji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lala/aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1145/1919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
+    <t>gunprefab/pistol1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunprefab/smg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunprefab/shotgun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunprefab/assault2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunprefab/sniper2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prpr/OO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prpr/OO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,128 +534,168 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>114514</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>52.54</v>
-      </c>
-      <c r="D4">
-        <v>13.44</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>533</v>
+        <v>114514</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>123</v>
+        <v>52.54</v>
       </c>
       <c r="D5">
-        <v>74821</v>
+        <v>13.44</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6">
-        <v>634</v>
+        <v>74821</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="F6">
-        <v>521</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>11415</v>
+        <v>124</v>
       </c>
       <c r="D7">
-        <v>124</v>
+        <v>634</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>213</v>
+        <v>521</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>11415</v>
+      </c>
+      <c r="D8">
+        <v>124</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>213</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>334</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>23</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>312434</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3321234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33234EA1-CD8A-4587-8104-1223E86E8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E946D1-55E1-4F47-92C1-24A6DE805AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterPZ" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ArtPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gunprefab/pistol1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>prpr/OO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>213</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E946D1-55E1-4F47-92C1-24A6DE805AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F49919-C92C-4EED-9664-934DEB584338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="1212" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterPZ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,22 @@
   </si>
   <si>
     <t>ResPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -477,7 +493,7 @@
     <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -502,8 +518,11 @@
       <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -528,13 +547,16 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>114514</v>
       </c>
@@ -559,8 +581,11 @@
       <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>533</v>
       </c>
@@ -585,8 +610,11 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -611,8 +639,11 @@
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -637,8 +668,11 @@
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>334</v>
       </c>
@@ -657,8 +691,11 @@
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>312434</v>
       </c>
@@ -677,8 +714,11 @@
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3321234</v>
       </c>
@@ -696,6 +736,9 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/游戏怪物配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F49919-C92C-4EED-9664-934DEB584338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C1FCE-ED48-4048-93B6-E155524FA299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2292" yWindow="1212" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterPZ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,22 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凯德尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老狗啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加21Q3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无线序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +136,58 @@
   </si>
   <si>
     <t>Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设体资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池预设组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非酋狗头人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响尾蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,14 +519,16 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -516,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -556,12 +594,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>114514</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>52.54</v>
@@ -579,18 +646,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>123</v>
@@ -608,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>124</v>
@@ -637,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -648,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>11415</v>
@@ -666,10 +733,10 @@
         <v>213</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,7 +744,7 @@
         <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>23</v>
@@ -686,13 +753,13 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,7 +767,7 @@
         <v>312434</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -709,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,7 +790,7 @@
         <v>3321234</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>23</v>
@@ -732,13 +799,13 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
         <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
